--- a/TCC00335/src/main/sql/trabalhos/s20181/Gabriel Bortoli e Roberta Sá/avaliacao.xlsx
+++ b/TCC00335/src/main/sql/trabalhos/s20181/Gabriel Bortoli e Roberta Sá/avaliacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lapaesleme/GitHub/lleme/TCC00335/src/main/sql/trabalhos/s20181/Gabriel Bortoli e Roberta Sá/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28969F4-1A21-E34B-B5A5-E2402C4CC921}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076F11B4-C5AF-D248-8CAA-086CF7B585F7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>OBS.: "Algumas restrições podem ser especificadas ao SGBD e impostas automaticamente. Outras podem ter que ser verificadas por programas de atualização ou no momento da entrada de dados. Em geral, para grandes aplicações, é comum chamar essas restrições de regras de negócio." (Elmasri, Ramez. Sistemas de Bancos de Dados (Seção 1.6.8))</t>
   </si>
@@ -68,6 +68,39 @@
   </si>
   <si>
     <t>Tema: Salão</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Habilitação</t>
+  </si>
+  <si>
+    <t>update em servico_funcionario</t>
+  </si>
+  <si>
+    <t>delete em servico_funcionario</t>
+  </si>
+  <si>
+    <t>insert agendamento</t>
+  </si>
+  <si>
+    <t>update agendamento</t>
+  </si>
+  <si>
+    <t>Alocação</t>
+  </si>
+  <si>
+    <t>update vinculo_empregaticio</t>
+  </si>
+  <si>
+    <t>delete vinculo_empregaticio</t>
+  </si>
+  <si>
+    <t>calcular_qtd_servico</t>
+  </si>
+  <si>
+    <t>estatisticas_funcionario</t>
   </si>
 </sst>
 </file>
@@ -1474,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:G32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1511,9 +1544,9 @@
       <c r="F2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="31" t="e">
+      <c r="G2" s="31">
         <f>G28+G33</f>
-        <v>#NUM!</v>
+        <v>6.4399999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="28" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1571,20 +1604,40 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="57"/>
+      <c r="A7" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="51">
+        <v>2</v>
+      </c>
+      <c r="C7" s="53">
+        <v>0.66</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="55">
+        <f>100%</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="57">
+        <f>B7*C7*F7</f>
+        <v>1.32</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="50"/>
       <c r="B8" s="52"/>
       <c r="C8" s="54"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="35"/>
+      <c r="D8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="F8" s="56"/>
       <c r="G8" s="58"/>
     </row>
@@ -1592,8 +1645,12 @@
       <c r="A9" s="50"/>
       <c r="B9" s="52"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="35"/>
+      <c r="D9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="F9" s="56"/>
       <c r="G9" s="58"/>
     </row>
@@ -1601,8 +1658,12 @@
       <c r="A10" s="50"/>
       <c r="B10" s="52"/>
       <c r="C10" s="54"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="35"/>
+      <c r="D10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="F10" s="56"/>
       <c r="G10" s="58"/>
     </row>
@@ -1643,20 +1704,39 @@
       <c r="G14" s="58"/>
     </row>
     <row r="15" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="58"/>
+      <c r="A15" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="52">
+        <v>2</v>
+      </c>
+      <c r="C15" s="59">
+        <v>0.66</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="61">
+        <v>1</v>
+      </c>
+      <c r="G15" s="58">
+        <f>B15*C15*F15</f>
+        <v>1.32</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="60"/>
       <c r="B16" s="52"/>
       <c r="C16" s="59"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="39"/>
+      <c r="D16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>16</v>
+      </c>
       <c r="F16" s="61"/>
       <c r="G16" s="58"/>
       <c r="J16" s="17"/>
@@ -1665,8 +1745,12 @@
       <c r="A17" s="60"/>
       <c r="B17" s="52"/>
       <c r="C17" s="59"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="35"/>
+      <c r="D17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="F17" s="61"/>
       <c r="G17" s="58"/>
       <c r="J17" s="17"/>
@@ -1675,19 +1759,32 @@
       <c r="A18" s="60"/>
       <c r="B18" s="52"/>
       <c r="C18" s="59"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="35"/>
+      <c r="D18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="F18" s="61"/>
       <c r="G18" s="58"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="68"/>
+      <c r="B19" s="52">
+        <v>2</v>
+      </c>
+      <c r="C19" s="68">
+        <v>1</v>
+      </c>
       <c r="D19" s="15"/>
       <c r="E19" s="35"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="58"/>
+      <c r="F19" s="56">
+        <v>0</v>
+      </c>
+      <c r="G19" s="58">
+        <f>B19*C19*F19</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="50"/>
@@ -1770,9 +1867,9 @@
       <c r="D28" s="63"/>
       <c r="E28" s="63"/>
       <c r="F28" s="63"/>
-      <c r="G28" s="23" t="e">
+      <c r="G28" s="23">
         <f>SUM(LARGE(G7:G27,1),LARGE(G7:G27,2),LARGE(G7:G27,3))</f>
-        <v>#NUM!</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="24" x14ac:dyDescent="0.2">
@@ -1808,22 +1905,44 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="22"/>
+      <c r="A31" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="32">
+        <v>2</v>
+      </c>
+      <c r="C31" s="22">
+        <v>1</v>
+      </c>
       <c r="D31" s="14"/>
       <c r="E31" s="13"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="18"/>
+      <c r="F31" s="36">
+        <v>0.9</v>
+      </c>
+      <c r="G31" s="18">
+        <f>B31*C31*F31</f>
+        <v>1.8</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="22"/>
+      <c r="A32" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="33">
+        <v>2</v>
+      </c>
+      <c r="C32" s="22">
+        <v>1</v>
+      </c>
       <c r="D32" s="16"/>
       <c r="E32" s="13"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="18"/>
+      <c r="F32" s="37">
+        <v>1</v>
+      </c>
+      <c r="G32" s="18">
+        <f>B32*C32*F32</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:7" s="21" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="64" t="s">
@@ -1836,7 +1955,7 @@
       <c r="F33" s="65"/>
       <c r="G33" s="24">
         <f>SUM(G31:G32)</f>
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>

--- a/TCC00335/src/main/sql/trabalhos/s20181/Gabriel Bortoli e Roberta Sá/avaliacao.xlsx
+++ b/TCC00335/src/main/sql/trabalhos/s20181/Gabriel Bortoli e Roberta Sá/avaliacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lapaesleme/GitHub/lleme/TCC00335/src/main/sql/trabalhos/s20181/Gabriel Bortoli e Roberta Sá/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076F11B4-C5AF-D248-8CAA-086CF7B585F7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A4ECF0-B783-4B4C-8CED-17E655D2BA1A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="-5140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avaliacao" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>OBS.: "Algumas restrições podem ser especificadas ao SGBD e impostas automaticamente. Outras podem ter que ser verificadas por programas de atualização ou no momento da entrada de dados. Em geral, para grandes aplicações, é comum chamar essas restrições de regras de negócio." (Elmasri, Ramez. Sistemas de Bancos de Dados (Seção 1.6.8))</t>
   </si>
@@ -67,40 +67,65 @@
     <t>AVALIAÇÃO GERAL: ALGUMAS RESTRIÇÕES DE INTEGRIDADE NÃO ESTÃO SUFICIENTEMENTE ESPECIFICADAS PARA ENTENDIMENTO DO PROFESSOR, SÃO DE BAIXA COMPLEXIDADE EM SUA MAIORIA E A IMPLEMENTAÇÃO NÃO CAPTUROU TODOS OS EVENTOS NECESSÁRIOS PARA GARANTI-LAS. FALTOU A DOCUMENTAÇÃO DO TRBALHO.</t>
   </si>
   <si>
-    <t>Tema: Salão</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Habilitação</t>
-  </si>
-  <si>
-    <t>update em servico_funcionario</t>
-  </si>
-  <si>
-    <t>delete em servico_funcionario</t>
-  </si>
-  <si>
-    <t>insert agendamento</t>
-  </si>
-  <si>
-    <t>update agendamento</t>
-  </si>
-  <si>
-    <t>Alocação</t>
-  </si>
-  <si>
-    <t>update vinculo_empregaticio</t>
-  </si>
-  <si>
-    <t>delete vinculo_empregaticio</t>
-  </si>
-  <si>
-    <t>calcular_qtd_servico</t>
-  </si>
-  <si>
-    <t>estatisticas_funcionario</t>
+    <t>Tema: Farmácia</t>
+  </si>
+  <si>
+    <t>VALIDAR SE LOJA EST� EM HORARIO DE FUNCIONAMENTO</t>
+  </si>
+  <si>
+    <t>Ao alterar Status do carrinho para que a loja inicie a separacao do pedido, devera ser
+-- verificado se o mesmo esta vazio, e, caso nao esteja, devera ser verificado se os produtos inseridos 
+-- sao da mesma loja</t>
+  </si>
+  <si>
+    <t>Ao adicionar o item no carrinho, deve ser verificado se o item esta disponivel em estoque
+-- para a quantidade adicionada e, se estiver, deve-se verificar se o mesmo esta em periodo promocional
+-- para ser atualizado seu preco no carrinho. Caso sejam verdadeiras as proposicoes anteriores, o estoque
+-- dever� ser atualizado com a quantia adicionada ao carrinho.</t>
+  </si>
+  <si>
+    <t>Exibir os total de itens vendidos de cada produto e a soma total da venda</t>
+  </si>
+  <si>
+    <t>Exibir os itens mais vendidos de cada loja e a total ja vendido deste mesmo item</t>
+  </si>
+  <si>
+    <t>update loja</t>
+  </si>
+  <si>
+    <t>update carrinho</t>
+  </si>
+  <si>
+    <t>update item</t>
+  </si>
+  <si>
+    <t>update estoque</t>
+  </si>
+  <si>
+    <t>insert item</t>
+  </si>
+  <si>
+    <t>Ao alterar Status do carrinho para que a loja inicie a separacao do pedido, devera ser
+-- verificado se o mesmo esta vazio</t>
+  </si>
+  <si>
+    <t>delete item</t>
+  </si>
+  <si>
+    <t>insert carrinho</t>
+  </si>
+  <si>
+    <t>deve-se verificar se o mesmo esta em periodo promocional
+-- para ser atualizado seu preco no carrinho</t>
+  </si>
+  <si>
+    <t>insert compra</t>
+  </si>
+  <si>
+    <t>update compra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update item </t>
   </si>
 </sst>
 </file>
@@ -958,7 +983,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1061,6 +1086,60 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="35" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="35" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1079,74 +1158,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="35" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1505,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1523,30 +1563,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="20" customFormat="1" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:10" s="19" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="29"/>
       <c r="F2" s="30" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="31">
-        <f>G28+G33</f>
-        <v>6.4399999999999995</v>
+        <f>G31+G36</f>
+        <v>2.9299999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="28" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1559,26 +1599,26 @@
       <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:10" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:10" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
@@ -1604,383 +1644,425 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="51">
+      <c r="A7" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="49">
         <v>2</v>
       </c>
-      <c r="C7" s="53">
-        <v>0.66</v>
+      <c r="C7" s="51">
+        <v>1</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="55">
-        <f>100%</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="57">
-        <f>B7*C7*F7</f>
-        <v>1.32</v>
+        <v>21</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="53">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="55">
+        <f>F7*C7*B7</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="54"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="58"/>
+        <v>22</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="56"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="54"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="58"/>
+        <v>23</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="56"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="54"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="58"/>
+        <v>24</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="E11" s="35"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="58"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="15"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="58"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="56"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="54"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="15"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="58"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="56"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="54"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="15"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="58"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="56"/>
     </row>
     <row r="15" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="52">
+      <c r="A15" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="50">
         <v>2</v>
       </c>
-      <c r="C15" s="59">
+      <c r="C15" s="71">
         <v>0.66</v>
       </c>
       <c r="D15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="57">
+        <v>0</v>
+      </c>
+      <c r="G15" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="70"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="61">
-        <v>1</v>
-      </c>
-      <c r="G15" s="58">
-        <f>B15*C15*F15</f>
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="15" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="56"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="70"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="61"/>
-      <c r="G16" s="58"/>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="61"/>
-      <c r="G17" s="58"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="56"/>
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="61"/>
-      <c r="G18" s="58"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
-      <c r="B19" s="52">
-        <v>2</v>
-      </c>
-      <c r="C19" s="68">
-        <v>1</v>
-      </c>
+      <c r="A18" s="70"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="56"/>
+    </row>
+    <row r="19" spans="1:10" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="15"/>
       <c r="E19" s="35"/>
-      <c r="F19" s="56">
-        <v>0</v>
-      </c>
-      <c r="G19" s="58">
-        <f>B19*C19*F19</f>
-        <v>0</v>
-      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="68"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="15"/>
       <c r="E20" s="35"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="58"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="68"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="15"/>
       <c r="E21" s="35"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="58"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="15"/>
+      <c r="A22" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="50">
+        <v>2</v>
+      </c>
+      <c r="C22" s="72">
+        <v>0.66</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="E22" s="35"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="58"/>
+      <c r="F22" s="54">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="G22" s="56">
+        <f>F22*C22*B22</f>
+        <v>0.33</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="60"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="15"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="E23" s="35"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="58"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="56"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="60"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="15"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="E24" s="35"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="58"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="56"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="60"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="15"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="E25" s="35"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="58"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="56"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="60"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="15"/>
+      <c r="A26" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="50">
+        <v>2</v>
+      </c>
+      <c r="C26" s="71">
+        <v>0.33</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="E26" s="35"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="58"/>
+      <c r="F26" s="57">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G26" s="56">
+        <f>F26*C26*B26</f>
+        <v>0.22</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="60"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="15"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="E27" s="35"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="58"/>
-    </row>
-    <row r="28" spans="1:10" s="21" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="62" t="s">
+      <c r="F27" s="57"/>
+      <c r="G27" s="56"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="70"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="56"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="70"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="56"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="70"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="56"/>
+    </row>
+    <row r="31" spans="1:10" s="21" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="23">
-        <f>SUM(LARGE(G7:G27,1),LARGE(G7:G27,2),LARGE(G7:G27,3))</f>
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="24" x14ac:dyDescent="0.2">
-      <c r="A29" s="40" t="s">
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="23">
+        <f>SUM(LARGE(G7:G30,1),LARGE(G7:G30,2),LARGE(G7:G30,3))</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A32" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-    </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="60"/>
+    </row>
+    <row r="33" spans="1:7" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G33" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="32">
+    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="32">
         <v>2</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C34" s="22">
+        <v>0.33</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="36">
         <v>1</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="36">
-        <v>0.9</v>
-      </c>
-      <c r="G31" s="18">
-        <f>B31*C31*F31</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="33">
+      <c r="G34" s="18">
+        <f>F34*C34*B34</f>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="33">
         <v>2</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C35" s="22">
+        <v>0.66</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="37">
         <v>1</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="37">
-        <v>1</v>
-      </c>
-      <c r="G32" s="18">
-        <f>B32*C32*F32</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="21" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="64" t="s">
+      <c r="G35" s="18">
+        <f>F35*C35*B35</f>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="21" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="24">
-        <f>SUM(G31:G32)</f>
-        <v>3.8</v>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="24">
+        <f>SUM(G34:G35)</f>
+        <v>1.98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A33:F33"/>
+  <mergeCells count="28">
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A36:F36"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="F15:F18"/>
     <mergeCell ref="G15:G18"/>
-    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="G26:G30"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="B7:B14"/>
